--- a/approaches/agora_data/our_ground_truth/Marvel getComicById/response_property_constraints.xlsx
+++ b/approaches/agora_data/our_ground_truth/Marvel getComicById/response_property_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\agora_data\our_ground_truth\Marvel getComicById\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA1359-6FFE-4CDF-997A-F38C10088C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF39BFF2-B6D6-4107-8BEB-A94FC03AB1D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_property_constraints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>operation</t>
   </si>
@@ -233,6 +233,81 @@
   </si>
   <si>
     <t>The number of total available events in this list. Will always be greater than or equal to the "returned" value. schema: {"type": "integer", "format": "int32"} schema: {"type": "integer", "format": "int32"}</t>
+  </si>
+  <si>
+    <t>ComicDataWrapper</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>The HTTP status code of the returned result, schema: {"type": "integer", "format": "int32"}</t>
+  </si>
+  <si>
+    <t>collectionURI</t>
+  </si>
+  <si>
+    <t>The path to the full list of characters in this collection</t>
+  </si>
+  <si>
+    <t>The path to the full list of events in this collection</t>
+  </si>
+  <si>
+    <t>The path to the full list of stories in this collection</t>
+  </si>
+  <si>
+    <t>The path to the full list of creators in this collection</t>
+  </si>
+  <si>
+    <t>CharacterSummary</t>
+  </si>
+  <si>
+    <t>The path to the individual character resource</t>
+  </si>
+  <si>
+    <t>CreatorSummary</t>
+  </si>
+  <si>
+    <t>The path to the individual creator resource</t>
+  </si>
+  <si>
+    <t>The number of events returned in this collection (up to 20</t>
+  </si>
+  <si>
+    <t>SeriesSummary</t>
+  </si>
+  <si>
+    <t>The path to the individual series resource</t>
+  </si>
+  <si>
+    <t>StorySummary</t>
+  </si>
+  <si>
+    <t>The path to the individual story resource</t>
+  </si>
+  <si>
+    <t>The type of the story (interior or cover</t>
+  </si>
+  <si>
+    <t>The canonical type of the text object (e.g. solicit text, preview text, etc.</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>A full URL (including scheme, domain, and path</t>
+  </si>
+  <si>
+    <t>EventSummary</t>
+  </si>
+  <si>
+    <t>The path to the individual event resource</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>The date the resource was most recently modified</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,6 +1604,216 @@
         <v>70</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
